--- a/configTools/Luban/ConfigRoot/Datas/item_Fixed.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item_Fixed.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -39,18 +39,6 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF6A9955"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <color rgb="FF6A9955"/>
       <sz val="9"/>
     </font>
     <font>
@@ -86,6 +74,12 @@
       <family val="3"/>
       <b val="1"/>
       <color indexed="81"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -136,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,29 +141,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -269,25 +360,25 @@
     <author>许天盈</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <t>xu:
-版本只针对道具类型为
-0.小丑牌
-5.幻灵牌</t>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
-      <text>
-        <t>xu:
-0.小丑牌
-1.补充包
+1.小丑牌
+2.补充包
 3.塔罗牌
 4.星球牌
 5.幻灵牌
 6.牌组
 7.标签(待定）
 8.小丑牌碎片(待开发)</t>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <t>xu:
+版本只针对道具类型为
+0.小丑牌
+5.幻灵牌</t>
       </text>
     </comment>
   </commentList>
@@ -556,16 +647,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col width="8.77734375" customWidth="1" min="3" max="4"/>
-    <col width="11.21875" customWidth="1" min="11" max="11"/>
+    <col width="11.21875" customWidth="1" min="2" max="2"/>
+    <col width="8.77734375" customWidth="1" min="4" max="5"/>
+    <col width="11.21875" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.05" customHeight="1">
@@ -579,64 +671,69 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>buy_value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>sell_value</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pile_yn</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>desc_value</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>icon</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>img_border</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sort</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
-        <is>
-          <t>type</t>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>init_enable</t>
         </is>
       </c>
     </row>
@@ -651,7 +748,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -673,40 +770,45 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
           <t>string</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>(list#sep=;),int</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>(list#sep=;),int</t>
         </is>
       </c>
-      <c r="N2" s="9" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -725,17 +827,17 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>c,s</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>c,s</t>
+          <t>c</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>c,s</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -781,6 +883,11 @@
       <c r="N3" s="1" t="inlineStr">
         <is>
           <t>c</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>s</t>
         </is>
       </c>
     </row>
@@ -795,90 +902,159 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>购买价值</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>出售价值</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>道具品质</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>可否堆叠</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>道具描述</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>物品描述变量</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>图标</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>图标外框(牌外框)</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="M4" s="8" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>版本</t>
         </is>
       </c>
-      <c r="N4" s="8" t="inlineStr">
-        <is>
-          <t>类型</t>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>初始号是否携带</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" t="n">
+      <c r="E5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" priority="13" dxfId="0"/>
+    <cfRule type="duplicateValues" priority="18" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A17">
-    <cfRule type="duplicateValues" priority="12" dxfId="0"/>
+  <conditionalFormatting sqref="A5 A8:A17">
+    <cfRule type="duplicateValues" priority="17" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5 B8:B21">
+    <cfRule type="duplicateValues" priority="5" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" priority="4" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" priority="3" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" priority="2" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" priority="1" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>